--- a/kennwerte.xlsx
+++ b/kennwerte.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>Me_max</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Thickness</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -514,6 +519,9 @@
       <c r="J2" t="n">
         <v>0.608469586572611</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -548,6 +556,9 @@
       <c r="J3" t="n">
         <v>6.300150766803319</v>
       </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -581,6 +592,9 @@
       </c>
       <c r="J4" t="n">
         <v>67.38575165320331</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/kennwerte.xlsx
+++ b/kennwerte.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,50 +437,80 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Mächtigkeit</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Raumgewicht</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Reibungswinkel</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Kohäsion</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Ve</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>We</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Me_min</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Me_max</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Thickness</t>
         </is>
@@ -490,36 +520,54 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Umgelagerte Moräne</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="I2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
         <v>19</v>
       </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
         <v>26</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>40</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>0.8</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.608469586572611</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -527,36 +575,54 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Verwitterte Moräne</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="I3" t="n">
         <v>1.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="J3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="n">
+      <c r="K3" t="n">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="M3" t="n">
         <v>110</v>
       </c>
-      <c r="H3" t="n">
+      <c r="N3" t="n">
         <v>0.6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="O3" t="n">
         <v>2.742299899445569</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>6.300150766803319</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -564,36 +630,54 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Frische Moräne</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="I4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="J4" t="n">
         <v>21</v>
       </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
         <v>28</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>600</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>0.55</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>36.82573189125608</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>67.38575165320331</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
         <v>6</v>
       </c>
     </row>

--- a/kennwerte.xlsx
+++ b/kennwerte.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Mächtigkeit</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Raumgewicht</t>
+  </si>
+  <si>
+    <t>Reibungswinkel</t>
+  </si>
+  <si>
+    <t>Kohäsion</t>
+  </si>
+  <si>
+    <t>Me_min</t>
+  </si>
+  <si>
+    <t>Me_max</t>
+  </si>
+  <si>
+    <t>Umgelagerte Moräne</t>
+  </si>
+  <si>
+    <t>Verwitterte Moräne</t>
+  </si>
+  <si>
+    <t>Frische Moräne</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +87,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,267 +403,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1.1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1.1.1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1.1.1.1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1.1.1.1.1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mächtigkeit</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Raumgewicht</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Reibungswinkel</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Kohäsion</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Ve</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>We</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Me_min</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Me_max</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Thickness</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Umgelagerte Moräne</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>19</v>
-      </c>
-      <c r="K2" t="n">
-        <v>26</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="I2">
+        <v>0.608469586572611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="M2" t="n">
-        <v>40</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.608469586572611</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5</v>
+      <c r="H3">
+        <v>2.742299899445569</v>
+      </c>
+      <c r="I3">
+        <v>6.300150766803319</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Verwitterte Moräne</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27</v>
-      </c>
-      <c r="L3" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="M3" t="n">
-        <v>110</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.742299899445569</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6.300150766803319</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Frische Moräne</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>28</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>600</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="H4">
         <v>36.82573189125608</v>
       </c>
-      <c r="P4" t="n">
+      <c r="I4">
         <v>67.38575165320331</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kennwerte.xlsx
+++ b/kennwerte.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CB.MAGMA\Documents\GitHub\baupy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442FA243-2702-4745-9206-6306C9A465A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,15 +118,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -162,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,14 +453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.608469586572611</v>
+        <v>0.60846958657261097</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -485,16 +540,16 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2.742299899445569</v>
+        <v>2.7422998994455692</v>
       </c>
       <c r="I3">
         <v>6.300150766803319</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -514,13 +569,13 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>36.82573189125608</v>
+        <v>36.825731891256083</v>
       </c>
       <c r="I4">
-        <v>67.38575165320331</v>
+        <v>67.385751653203315</v>
       </c>
     </row>
   </sheetData>

--- a/kennwerte.xlsx
+++ b/kennwerte.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CB.MAGMA\Documents\GitHub\baupy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442FA243-2702-4745-9206-6306C9A465A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,20 +40,20 @@
     <t>Me_max</t>
   </si>
   <si>
-    <t>Umgelagerte Moräne</t>
-  </si>
-  <si>
-    <t>Verwitterte Moräne</t>
-  </si>
-  <si>
-    <t>Frische Moräne</t>
+    <t>Lakustrische Ablagerungen 1</t>
+  </si>
+  <si>
+    <t>Lakustrische Ablagerungen 2</t>
+  </si>
+  <si>
+    <t>Fluviatile Ablagerungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,23 +112,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,19 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,10 +444,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
         <v>19</v>
@@ -511,16 +456,16 @@
         <v>26</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.60846958657261097</v>
+        <v>0.342</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -528,28 +473,28 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>0.6</v>
+      </c>
+      <c r="D3">
         <v>1.5</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>2.7422998994455692</v>
+        <v>0.2628</v>
       </c>
       <c r="I3">
-        <v>6.300150766803319</v>
+        <v>0.4380000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -557,25 +502,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>36.825731891256083</v>
+        <v>16.70322142365942</v>
       </c>
       <c r="I4">
-        <v>67.385751653203315</v>
+        <v>60.80550233383647</v>
       </c>
     </row>
   </sheetData>
